--- a/spliced/struggle/2023-03-25_18-15-31/accelerometer_selected.xlsx
+++ b/spliced/struggle/2023-03-25_18-15-31/accelerometer_selected.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,233 +452,222 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-1.559234559535978</v>
+        <v>-7.118332028388976</v>
       </c>
       <c r="B2" t="n">
-        <v>-6.451132655143738</v>
+        <v>-7.95554971694946</v>
       </c>
       <c r="C2" t="n">
-        <v>1.616835504770279</v>
+        <v>2.69339257478714</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-8.968847125768663</v>
+        <v>-8.024936378002169</v>
       </c>
       <c r="B3" t="n">
-        <v>-9.099803924560549</v>
+        <v>-5.88237792253494</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8352741301059722</v>
+        <v>-0.4918670058250485</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-9.520569562911987</v>
+        <v>-5.887924194335933</v>
       </c>
       <c r="B4" t="n">
-        <v>-9.647500991821289</v>
+        <v>-5.405047655105592</v>
       </c>
       <c r="C4" t="n">
-        <v>4.358519792556764</v>
+        <v>-3.775259375572207</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-2.404734849929808</v>
+        <v>2.069207787513737</v>
       </c>
       <c r="B5" t="n">
-        <v>-7.379530906677244</v>
+        <v>-3.849987745285032</v>
       </c>
       <c r="C5" t="n">
-        <v>9.517022371292116</v>
+        <v>-9.244750261306768</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-1.40164387226105</v>
+        <v>8.762776851654046</v>
       </c>
       <c r="B6" t="n">
-        <v>-3.939785599708556</v>
+        <v>-1.275362730026247</v>
       </c>
       <c r="C6" t="n">
-        <v>12.10228085517884</v>
+        <v>-14.43722319602966</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-3.86206918954849</v>
+        <v>1.67717647552489</v>
       </c>
       <c r="B7" t="n">
-        <v>-3.620265662670138</v>
+        <v>-3.68832957744599</v>
       </c>
       <c r="C7" t="n">
-        <v>12.4763557612896</v>
+        <v>-9.681065678596497</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>3.455067157745361</v>
+        <v>-9.187725067138672</v>
       </c>
       <c r="B8" t="n">
-        <v>-9.44985294342041</v>
+        <v>-9.568089485168455</v>
       </c>
       <c r="C8" t="n">
-        <v>3.601668119430542</v>
+        <v>-11.71019172668457</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-6.467438399791721</v>
+        <v>-7.743325769901275</v>
       </c>
       <c r="B9" t="n">
-        <v>-10.16471409797668</v>
+        <v>-9.975353479385372</v>
       </c>
       <c r="C9" t="n">
-        <v>2.68689438700676</v>
+        <v>-2.217791140079495</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-7.118332028388976</v>
+        <v>-6.245171070098876</v>
       </c>
       <c r="B10" t="n">
-        <v>-7.95554971694946</v>
+        <v>-8.684671878814695</v>
       </c>
       <c r="C10" t="n">
-        <v>2.69339257478714</v>
+        <v>-0.8914805054664612</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-8.024936378002169</v>
+        <v>-1.642100766301147</v>
       </c>
       <c r="B11" t="n">
-        <v>-5.88237792253494</v>
+        <v>-16.44720804691316</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.4918670058250485</v>
+        <v>17.28287854790691</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-5.887924194335933</v>
+        <v>3.432755649089821</v>
       </c>
       <c r="B12" t="n">
-        <v>-5.405047655105592</v>
+        <v>-16.13965225219725</v>
       </c>
       <c r="C12" t="n">
-        <v>-3.775259375572207</v>
+        <v>17.14644360542294</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>2.069207787513737</v>
+        <v>2.014435052871684</v>
       </c>
       <c r="B13" t="n">
-        <v>-3.849987745285032</v>
+        <v>-10.68784558773041</v>
       </c>
       <c r="C13" t="n">
-        <v>-9.244750261306768</v>
+        <v>6.156565487384797</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>8.762776851654046</v>
+        <v>-6.789637804031393</v>
       </c>
       <c r="B14" t="n">
-        <v>-1.275362730026247</v>
+        <v>-9.379580616950978</v>
       </c>
       <c r="C14" t="n">
-        <v>-14.43722319602966</v>
+        <v>5.642722845077509</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1.67717647552489</v>
+        <v>-11.7663733065128</v>
       </c>
       <c r="B15" t="n">
-        <v>-3.68832957744599</v>
+        <v>-6.984511554241188</v>
       </c>
       <c r="C15" t="n">
-        <v>-9.681065678596497</v>
+        <v>3.816117525100708</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-9.187725067138672</v>
+        <v>-1.357394456863403</v>
       </c>
       <c r="B16" t="n">
-        <v>-9.568089485168455</v>
+        <v>-10.09910678863525</v>
       </c>
       <c r="C16" t="n">
-        <v>-11.71019172668457</v>
+        <v>3.819830894470215</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>-7.743325769901275</v>
+        <v>1.284981921315195</v>
       </c>
       <c r="B17" t="n">
-        <v>-9.975353479385372</v>
+        <v>-13.9884957075119</v>
       </c>
       <c r="C17" t="n">
-        <v>-2.217791140079495</v>
+        <v>-13.69542229175569</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-6.245171070098876</v>
+        <v>1.272318005561828</v>
       </c>
       <c r="B18" t="n">
-        <v>-8.684671878814695</v>
+        <v>-9.928469419479365</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.8914805054664612</v>
+        <v>-8.66020488739013</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>-1.642100766301147</v>
+        <v>2.418770149350169</v>
       </c>
       <c r="B19" t="n">
-        <v>-16.44720804691316</v>
+        <v>-4.946553826332086</v>
       </c>
       <c r="C19" t="n">
-        <v>17.28287854790691</v>
+        <v>-8.305895447731023</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>3.432755649089821</v>
+        <v>-0.9577411413192878</v>
       </c>
       <c r="B20" t="n">
-        <v>-16.13965225219725</v>
+        <v>-7.853628158569351</v>
       </c>
       <c r="C20" t="n">
-        <v>17.14644360542294</v>
+        <v>-5.728095054626454</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>2.014435052871684</v>
+        <v>-5.118649840354919</v>
       </c>
       <c r="B21" t="n">
-        <v>-10.68784558773041</v>
+        <v>-10.2695299386978</v>
       </c>
       <c r="C21" t="n">
-        <v>6.156565487384797</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>-6.789637804031393</v>
-      </c>
-      <c r="B22" t="n">
-        <v>-9.379580616950978</v>
-      </c>
-      <c r="C22" t="n">
-        <v>5.642722845077509</v>
+        <v>-1.659017741680144</v>
       </c>
     </row>
   </sheetData>
